--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3972067.105935158</v>
+        <v>3967763.458663776</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="C2" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>198.3059367771008</v>
+        <v>56.56995359489671</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>36.79344836607639</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>120.3448634941085</v>
       </c>
     </row>
     <row r="4">
@@ -822,25 +822,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>46.9507258125601</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.05296638895598</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143488</v>
+        <v>290.2905114143476</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>290.2905114143476</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2905114143488</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>85.39774262201507</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>290.2905114143476</v>
       </c>
       <c r="G5" t="n">
         <v>12.74220307430064</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>131.1847938393193</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.7608855401374</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157311</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>290.2905114143488</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370897</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790329</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6426402623424</v>
+        <v>70.77190705779579</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>64.57656171289453</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>80.36384741776276</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.15545075340498</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>42.35782667307299</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>286.5888679426066</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>207.9736328244655</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>77.12665771331807</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>164.8914808188908</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>33.48499328953245</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856543</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>80.67842139643707</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70.40964990483532</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>190.7368854541452</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856543</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>79.70119244397925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012157</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>45.16086499485174</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>5.890337106879837</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>20.88994825141581</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.01175877060098</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,10 +3322,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>139.188673966789</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>52.91369288257662</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>158.1862028292491</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>140.7058473537592</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7712912700503</v>
+        <v>560.7865044148614</v>
       </c>
       <c r="C2" t="n">
-        <v>232.5410406220654</v>
+        <v>318.5562537668771</v>
       </c>
       <c r="D2" t="n">
-        <v>232.5410406220654</v>
+        <v>318.5562537668771</v>
       </c>
       <c r="E2" t="n">
-        <v>232.5410406220654</v>
+        <v>318.5562537668771</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23201357448888</v>
+        <v>261.4148864993047</v>
       </c>
       <c r="G2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="H2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="I2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470337</v>
+        <v>40.41888584470354</v>
       </c>
       <c r="K2" t="n">
         <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605488</v>
+        <v>262.310696260548</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859564</v>
+        <v>449.0101090859555</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779383</v>
+        <v>643.3443219779374</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948978</v>
+        <v>813.5133472948967</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444249</v>
+        <v>924.2476725444228</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660199</v>
+        <v>803.0167550628457</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660199</v>
+        <v>803.0167550628457</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660199</v>
+        <v>803.0167550628457</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660199</v>
+        <v>803.0167550628457</v>
       </c>
       <c r="W2" t="n">
-        <v>717.0015419180351</v>
+        <v>803.0167550628457</v>
       </c>
       <c r="X2" t="n">
-        <v>717.0015419180351</v>
+        <v>803.0167550628457</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.0015419180351</v>
+        <v>803.0167550628457</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.6235993569995</v>
+        <v>648.3440877722692</v>
       </c>
       <c r="C3" t="n">
-        <v>203.1705700758725</v>
+        <v>473.8910584911422</v>
       </c>
       <c r="D3" t="n">
-        <v>203.1705700758725</v>
+        <v>324.9566488298909</v>
       </c>
       <c r="E3" t="n">
-        <v>166.0054707161993</v>
+        <v>165.7191938244354</v>
       </c>
       <c r="F3" t="n">
-        <v>166.0054707161993</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="G3" t="n">
-        <v>166.0054707161993</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="H3" t="n">
-        <v>65.08949286100392</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450201</v>
+        <v>86.79245551467721</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607141</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153188</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679834</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367441</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640429</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660199</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="S3" t="n">
-        <v>809.7650034286546</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="T3" t="n">
-        <v>612.7757075887422</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="U3" t="n">
-        <v>612.7757075887422</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="V3" t="n">
-        <v>377.6235993569995</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="W3" t="n">
-        <v>377.6235993569995</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="X3" t="n">
-        <v>377.6235993569995</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="Y3" t="n">
-        <v>377.6235993569995</v>
+        <v>816.5594247923373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478.4201747466568</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="C4" t="n">
-        <v>309.4839918187499</v>
+        <v>790.2956096381108</v>
       </c>
       <c r="D4" t="n">
-        <v>309.4839918187499</v>
+        <v>640.1789702257751</v>
       </c>
       <c r="E4" t="n">
-        <v>161.5708982363568</v>
+        <v>492.2658766433819</v>
       </c>
       <c r="F4" t="n">
-        <v>161.5708982363568</v>
+        <v>345.3759291454716</v>
       </c>
       <c r="G4" t="n">
-        <v>161.5708982363568</v>
+        <v>297.950953577229</v>
       </c>
       <c r="H4" t="n">
-        <v>161.5708982363568</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068302</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584454</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470443</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456599</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="S4" t="n">
-        <v>751.7915078184253</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="T4" t="n">
-        <v>751.7915078184253</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="U4" t="n">
-        <v>751.7915078184253</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="V4" t="n">
-        <v>699.2127538901869</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="W4" t="n">
-        <v>699.2127538901869</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="X4" t="n">
-        <v>699.2127538901869</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="Y4" t="n">
-        <v>478.4201747466568</v>
+        <v>959.2317925660177</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.5227387438308</v>
+        <v>867.9393068550191</v>
       </c>
       <c r="C5" t="n">
-        <v>422.5227387438308</v>
+        <v>574.7165680526477</v>
       </c>
       <c r="D5" t="n">
-        <v>129.2999999414582</v>
+        <v>574.7165680526477</v>
       </c>
       <c r="E5" t="n">
-        <v>43.03965385861466</v>
+        <v>574.7165680526477</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941118</v>
+        <v>281.4938292502764</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314791</v>
+        <v>268.6229170540131</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314791</v>
+        <v>136.1130242870239</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314791</v>
+        <v>23.22324091314781</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382952038</v>
+        <v>59.13673382952004</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444971</v>
+        <v>163.7002683444963</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084665</v>
+        <v>330.3223409084645</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162902</v>
+        <v>547.3909387162876</v>
       </c>
       <c r="N5" t="n">
-        <v>772.58574175371</v>
+        <v>772.5857417537063</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416975</v>
+        <v>971.8955472416935</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.50085417142</v>
+        <v>1107.500854171415</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657395</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657395</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="S5" t="n">
-        <v>1008.968216348576</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="T5" t="n">
-        <v>1008.968216348576</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="U5" t="n">
-        <v>1008.968216348576</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="V5" t="n">
-        <v>715.7454775462033</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="W5" t="n">
-        <v>715.7454775462033</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="X5" t="n">
-        <v>715.7454775462033</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="Y5" t="n">
-        <v>715.7454775462033</v>
+        <v>1161.162045657391</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>240.3303533495365</v>
+        <v>505.8481348609815</v>
       </c>
       <c r="C6" t="n">
-        <v>65.87732406840951</v>
+        <v>331.3951055798545</v>
       </c>
       <c r="D6" t="n">
-        <v>65.87732406840951</v>
+        <v>182.4606959186033</v>
       </c>
       <c r="E6" t="n">
-        <v>65.87732406840951</v>
+        <v>23.22324091314781</v>
       </c>
       <c r="F6" t="n">
-        <v>65.87732406840951</v>
+        <v>23.22324091314781</v>
       </c>
       <c r="G6" t="n">
-        <v>65.87732406840951</v>
+        <v>23.22324091314781</v>
       </c>
       <c r="H6" t="n">
-        <v>65.87732406840951</v>
+        <v>23.22324091314781</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314791</v>
+        <v>23.22324091314781</v>
       </c>
       <c r="J6" t="n">
-        <v>25.7952243050898</v>
+        <v>25.7952243050895</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063304</v>
+        <v>235.7315125838865</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119428</v>
+        <v>393.0537298894985</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702561</v>
+        <v>595.9982052478114</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269178</v>
+        <v>818.7226619044726</v>
       </c>
       <c r="O6" t="n">
-        <v>978.7247339271231</v>
+        <v>1000.252231792104</v>
       </c>
       <c r="P6" t="n">
-        <v>1105.08515144825</v>
+        <v>1126.61264931323</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657395</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891836</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891836</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="T6" t="n">
-        <v>949.3035783541169</v>
+        <v>1089.675270851536</v>
       </c>
       <c r="U6" t="n">
-        <v>721.1710025350683</v>
+        <v>1089.675270851536</v>
       </c>
       <c r="V6" t="n">
-        <v>721.1710025350683</v>
+        <v>1089.675270851536</v>
       </c>
       <c r="W6" t="n">
-        <v>655.9421523200233</v>
+        <v>1089.675270851536</v>
       </c>
       <c r="X6" t="n">
-        <v>448.0906521144905</v>
+        <v>881.8237706460034</v>
       </c>
       <c r="Y6" t="n">
-        <v>240.3303533495365</v>
+        <v>674.0634718810495</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.3988443654335</v>
+        <v>649.3573374179414</v>
       </c>
       <c r="C7" t="n">
-        <v>104.3988443654335</v>
+        <v>480.4211544900345</v>
       </c>
       <c r="D7" t="n">
-        <v>104.3988443654335</v>
+        <v>330.3045150776987</v>
       </c>
       <c r="E7" t="n">
-        <v>23.22324091314791</v>
+        <v>182.3914214953056</v>
       </c>
       <c r="F7" t="n">
-        <v>23.22324091314791</v>
+        <v>35.50147399739527</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314791</v>
+        <v>35.50147399739527</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314791</v>
+        <v>35.50147399739527</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314791</v>
+        <v>35.50147399739527</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314791</v>
+        <v>23.22324091314781</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279153</v>
+        <v>133.2846894279151</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993051</v>
+        <v>329.6518852993047</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837277007</v>
+        <v>547.0826837277</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730522</v>
+        <v>764.7780801730513</v>
       </c>
       <c r="O7" t="n">
-        <v>949.838718296789</v>
+        <v>949.8387182967879</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195911</v>
+        <v>1084.66938219591</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899867</v>
+        <v>1094.584064899866</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899867</v>
+        <v>1094.584064899866</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899867</v>
+        <v>1094.584064899866</v>
       </c>
       <c r="T7" t="n">
-        <v>869.2930817518111</v>
+        <v>1094.584064899866</v>
       </c>
       <c r="U7" t="n">
-        <v>869.2930817518111</v>
+        <v>1094.584064899866</v>
       </c>
       <c r="V7" t="n">
-        <v>614.6085935459242</v>
+        <v>1094.584064899866</v>
       </c>
       <c r="W7" t="n">
-        <v>325.1914235089636</v>
+        <v>1094.584064899866</v>
       </c>
       <c r="X7" t="n">
-        <v>325.1914235089636</v>
+        <v>1051.798381391711</v>
       </c>
       <c r="Y7" t="n">
-        <v>104.3988443654335</v>
+        <v>831.0058022481811</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1089.391082610343</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C8" t="n">
-        <v>720.4285656699312</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="D8" t="n">
-        <v>720.4285656699312</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>334.640313071687</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>327.6948123224835</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847234</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1479.530414586155</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1089.391082610343</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4874,37 +4874,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182519</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310627</v>
+        <v>551.2876347907473</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625354</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217569</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300795</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.86416460182</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.8338829770709</v>
+        <v>910.9948295422081</v>
       </c>
       <c r="C10" t="n">
-        <v>770.8338829770709</v>
+        <v>742.0586466143012</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647351</v>
+        <v>591.9420072019655</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647351</v>
+        <v>444.0289136195723</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668247</v>
+        <v>297.138966121662</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751033</v>
+        <v>129.1525014299405</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386096</v>
+        <v>129.1525014299405</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1469.889068742289</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1469.889068742289</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1180.471898705328</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X10" t="n">
-        <v>952.4823478073106</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="Y10" t="n">
-        <v>952.4823478073106</v>
+        <v>1092.643294372448</v>
       </c>
     </row>
     <row r="11">
@@ -5023,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.5772922261149</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C13" t="n">
-        <v>815.6411092982081</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D13" t="n">
-        <v>665.5244698858725</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408902</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429799</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.61519755786</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304623</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267662</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369645</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261149</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356188</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232832</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408902</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429799</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.61519755786</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.987318831766</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W16" t="n">
-        <v>1618.570148794806</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.580597896788</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1169.788018753258</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,7 +5542,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191924</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654475</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
         <v>2319.799627685893</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811326</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532258</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408902</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408902</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429799</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.61519755786</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648821</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654902</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511372</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356187</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232831</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408901</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429799</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854708</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648821</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611861</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611861</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263526</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,28 +6068,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.580456911439</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835326</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711969</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888039</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908937</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.112710026074</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026074</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820187</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783226</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.021500885209</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.228921741679</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>197.0043242297712</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6493,19 +6493,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,10 +6700,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>984.9192356072716</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>815.9830526793647</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>665.866413267029</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>517.9533196846359</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>371.0633721867255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,7 +7438,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.2785022257</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1748.203275569898</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1493.518787364011</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1204.10161732705</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
-        <v>66.78462588923512</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923419</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8148,16 +8148,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>111.3252676074464</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>77.96696197637743</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506747</v>
+        <v>54.7423662450677</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>128.6722568460169</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>106.9273095076503</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.74494733836855</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>129.4330134067488</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071635</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
-        <v>70.03064962107248</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-6.002576867622766e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>112.9489693570366</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.4223302771019</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>61.40075786968279</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>146.0084629450578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.4237883572429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>211.5151132204083</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>119.4047645948081</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>112.948969357039</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>41.54258064659092</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>59.21924749803921</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>4.71520066917202</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>632597.5140768181</v>
+        <v>632597.514076818</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>639864.0617006003</v>
+        <v>639864.0617006005</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900063</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800894</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342211186</v>
+        <v>55881.32342211116</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276236</v>
+        <v>363279.8866276226</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245437</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353588</v>
+        <v>62744.31078353572</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440523</v>
+        <v>12992.59634440515</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666196</v>
+        <v>88656.33991666228</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>5.229288266773751e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431031</v>
+        <v>246054.6603431035</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828186</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683054</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683048</v>
       </c>
-      <c r="G4" t="n">
-        <v>12996.86414683049</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12996.86414683054</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683047</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.8641468304</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437331</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302722</v>
+        <v>65162.40123302712</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-153413.1843562053</v>
+        <v>-153413.1843562049</v>
       </c>
       <c r="C6" t="n">
-        <v>453943.3848660409</v>
+        <v>453943.3848660417</v>
       </c>
       <c r="D6" t="n">
-        <v>220873.0168139967</v>
+        <v>220873.0168139972</v>
       </c>
       <c r="E6" t="n">
-        <v>185541.7640947248</v>
+        <v>185194.3848403654</v>
       </c>
       <c r="F6" t="n">
-        <v>693027.2057192688</v>
+        <v>692679.8264649118</v>
       </c>
       <c r="G6" t="n">
-        <v>693027.2057192684</v>
+        <v>692679.8264649113</v>
       </c>
       <c r="H6" t="n">
-        <v>693027.2057192685</v>
+        <v>692679.8264649117</v>
       </c>
       <c r="I6" t="n">
-        <v>693027.2057192684</v>
+        <v>692679.8264649116</v>
       </c>
       <c r="J6" t="n">
-        <v>630282.8949357326</v>
+        <v>629935.5156813759</v>
       </c>
       <c r="K6" t="n">
-        <v>680034.6093748637</v>
+        <v>679687.2301205064</v>
       </c>
       <c r="L6" t="n">
-        <v>604370.8658026065</v>
+        <v>604023.4865482494</v>
       </c>
       <c r="M6" t="n">
-        <v>560419.9119903421</v>
+        <v>560072.5327359849</v>
       </c>
       <c r="N6" t="n">
-        <v>693027.2057192688</v>
+        <v>692679.8264649117</v>
       </c>
       <c r="O6" t="n">
-        <v>693027.2057192688</v>
+        <v>692679.8264649118</v>
       </c>
       <c r="P6" t="n">
-        <v>693027.2057192688</v>
+        <v>692679.8264649118</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.93294215756</v>
+        <v>636.9329421575591</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143488</v>
+        <v>290.2905114143476</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.536610333467188e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949503</v>
+        <v>43.45684181949446</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599816</v>
+        <v>297.13194995998</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241319</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284382</v>
+        <v>50.48256327284322</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856899</v>
+        <v>350.2943206856912</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415048</v>
+        <v>239.8079481415041</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284389</v>
+        <v>50.48256327284345</v>
       </c>
       <c r="L4" t="n">
-        <v>350.29432068569</v>
+        <v>350.2943206856912</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284382</v>
+        <v>50.48256327284322</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856899</v>
+        <v>350.2943206856912</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.9258935219756</v>
+        <v>142.9258935219761</v>
       </c>
       <c r="C2" t="n">
-        <v>125.4649436295026</v>
+        <v>125.4649436295031</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>208.5701089646107</v>
+        <v>350.3060921468147</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>173.1089558044324</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>109.433020575908</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>120.8516320893246</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>85.33783228319585</v>
       </c>
     </row>
     <row r="4">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>119.9700507420103</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
@@ -27596,7 +27596,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>200.084676934872</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.44333024913175</v>
+        <v>92.44333024913294</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>74.98238035665992</v>
       </c>
       <c r="D5" t="n">
-        <v>64.39253020633413</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>296.5326274502467</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>116.5855343273638</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735718</v>
+        <v>182.0669349342525</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401372</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
         <v>211.8871100493787</v>
@@ -27675,7 +27675,7 @@
         <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>37.46174705578608</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337431</v>
+        <v>99.00406368337434</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42.22754232370905</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.09724236790342</v>
       </c>
       <c r="S6" t="n">
         <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>123.8707332045466</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>187.1184214480251</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>66.07011522880642</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
-        <v>152.0153623856347</v>
+        <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
         <v>120.9099147197631</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340485</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441975</v>
+        <v>125.6496154441976</v>
       </c>
       <c r="S7" t="n">
         <v>204.0001972153978</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>183.3518287159642</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>68.0941736780764</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>203.5740699484885</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>27.66993749058251</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>121.3356733023098</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29988,10 +29988,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30042,10 +30042,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.56053444083441</v>
+        <v>2.560534440834406</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219541</v>
+        <v>26.22307334219537</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026869</v>
+        <v>98.71500403026855</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977697</v>
+        <v>217.3221599977694</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782903</v>
+        <v>325.7095828782899</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719765</v>
+        <v>404.071538771976</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341654</v>
+        <v>449.6074431341648</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141862</v>
+        <v>456.8825616141856</v>
       </c>
       <c r="O5" t="n">
-        <v>431.421247268139</v>
+        <v>431.4212472681384</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600395</v>
+        <v>368.208053260039</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976571</v>
+        <v>276.5089135976567</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690647</v>
+        <v>160.8431715690644</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051418</v>
+        <v>58.34817857051409</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475264</v>
+        <v>11.20873951475262</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667528</v>
+        <v>0.2048427552667525</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772865</v>
+        <v>1.370006705772863</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312215</v>
+        <v>13.23138055312213</v>
       </c>
       <c r="I6" t="n">
-        <v>47.1690905277061</v>
+        <v>47.16909052770603</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888302</v>
+        <v>129.43558968883</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756121</v>
+        <v>221.2260389756118</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916039</v>
+        <v>297.4657103916035</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758701</v>
+        <v>347.1284534758697</v>
       </c>
       <c r="N6" t="n">
-        <v>356.315910726426</v>
+        <v>356.3159107264254</v>
       </c>
       <c r="O6" t="n">
-        <v>325.959446351143</v>
+        <v>325.9594463511425</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892061</v>
+        <v>261.6111927892057</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.880154231638</v>
+        <v>174.8801542316378</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473984</v>
+        <v>85.06059178473971</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959684</v>
+        <v>25.4472736795968</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479221</v>
+        <v>5.522088432479213</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663589</v>
+        <v>0.09013202011663575</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611993</v>
+        <v>1.148567600611992</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180482</v>
+        <v>10.21181012180481</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749523</v>
+        <v>34.54056020749518</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326793</v>
+        <v>81.2037293632678</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438297</v>
+        <v>133.4426721438296</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400777</v>
+        <v>170.7606776400774</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577509</v>
+        <v>180.0431921577506</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645609</v>
+        <v>175.7621674645606</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846844</v>
+        <v>162.3448095846841</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321996</v>
+        <v>138.9140305321994</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579155</v>
+        <v>96.17687426579141</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297198</v>
+        <v>51.6437759329719</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157446</v>
+        <v>20.01640082157443</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705788</v>
+        <v>4.907516111705781</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156334</v>
+        <v>0.06264914185156326</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>522.1224556861838</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>254.8897444730612</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>502.2268148619681</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,10 +32788,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>186.6878763515707</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>514.695376254093</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.075352821919</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.9666072747242</v>
+        <v>89.75123316395828</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>147.4099394863222</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>69.67512249932176</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353415</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108343</v>
+        <v>36.27625547108312</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333098</v>
+        <v>105.6197318333093</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019893</v>
+        <v>168.3051238019887</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068927</v>
+        <v>219.261209906892</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175953</v>
+        <v>227.4694980175947</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464523</v>
+        <v>201.3230358464517</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047699</v>
+        <v>136.9750575047694</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320763</v>
+        <v>54.20322372320723</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163526</v>
+        <v>2.597963022163327</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125315</v>
+        <v>212.0568568472697</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117297</v>
+        <v>158.9113306117293</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538518</v>
+        <v>204.9944195538513</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430926</v>
+        <v>224.9741986430921</v>
       </c>
       <c r="O6" t="n">
-        <v>290.2905114143488</v>
+        <v>183.3632019066981</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748759</v>
+        <v>127.6367853748755</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.64332748398502</v>
+        <v>34.89838014561624</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179469</v>
+        <v>111.1731803179467</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003938</v>
+        <v>198.3507029003935</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195915</v>
+        <v>219.6270691195912</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437895</v>
+        <v>219.8943398437892</v>
       </c>
       <c r="O7" t="n">
-        <v>186.929937498724</v>
+        <v>186.9299374987238</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970931</v>
+        <v>136.1925897970929</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409717</v>
+        <v>10.01483101409703</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>316.0205096502336</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>405.4553316171967</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667043</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>379.5262112417394</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35576,13 +35576,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>116.335364693187</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>44.0916319071262</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>372.0991318096486</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3967763.458663776</v>
+        <v>3969523.988966562</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.8079481415044</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>239.8079481415044</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>56.56995359489671</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="G2" t="n">
-        <v>239.8079481415044</v>
+        <v>205.0379458690505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>32.61348873806885</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>120.3448634941085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>46.9507258125601</v>
+        <v>46.95072581256179</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143476</v>
+        <v>290.290511414346</v>
       </c>
       <c r="C5" t="n">
-        <v>290.2905114143476</v>
+        <v>236.0696336377438</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143476</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430064</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
-        <v>131.1847938393193</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401374</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>290.290511414346</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>290.290511414346</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>48.97773938789617</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.09724236790362</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>70.77190705779579</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340498</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>42.35782667307299</v>
+        <v>54.51327742647567</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426066</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>108.9744426442955</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>77.12665771331807</v>
+        <v>77.12665771331851</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>80.67842139643707</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>190.7368854541452</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1903,13 +1903,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>175.8628696806972</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.7865044148614</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="C2" t="n">
-        <v>318.5562537668771</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="D2" t="n">
-        <v>318.5562537668771</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="E2" t="n">
-        <v>318.5562537668771</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="F2" t="n">
-        <v>261.4148864993047</v>
+        <v>345.9866426825738</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132035</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132035</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470354</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
         <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.310696260548</v>
+        <v>262.3106962605486</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859555</v>
+        <v>449.0101090859561</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779374</v>
+        <v>643.3443219779382</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948967</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444228</v>
+        <v>924.2476725444243</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660193</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628457</v>
+        <v>803.0167550628474</v>
       </c>
       <c r="T2" t="n">
-        <v>803.0167550628457</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="U2" t="n">
-        <v>803.0167550628457</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="V2" t="n">
-        <v>803.0167550628457</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="W2" t="n">
-        <v>803.0167550628457</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="X2" t="n">
-        <v>803.0167550628457</v>
+        <v>588.2168933305585</v>
       </c>
       <c r="Y2" t="n">
-        <v>803.0167550628457</v>
+        <v>588.2168933305585</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>648.3440877722692</v>
+        <v>534.7524477163954</v>
       </c>
       <c r="C3" t="n">
-        <v>473.8910584911422</v>
+        <v>360.2994184352684</v>
       </c>
       <c r="D3" t="n">
-        <v>324.9566488298909</v>
+        <v>211.3650087740172</v>
       </c>
       <c r="E3" t="n">
-        <v>165.7191938244354</v>
+        <v>52.12755376856165</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132035</v>
+        <v>52.12755376856165</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467721</v>
+        <v>86.79245551467734</v>
       </c>
       <c r="L3" t="n">
-        <v>224.022053530371</v>
+        <v>224.0220535303712</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849756</v>
+        <v>403.5193898849759</v>
       </c>
       <c r="N3" t="n">
-        <v>602.17613153764</v>
+        <v>602.1761315376405</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064004</v>
+        <v>761.688444206401</v>
       </c>
       <c r="P3" t="n">
-        <v>870.378071733699</v>
+        <v>870.3780717336997</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682045</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682045</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682045</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="U3" t="n">
-        <v>938.1198929682045</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="V3" t="n">
-        <v>938.1198929682045</v>
+        <v>702.9677847364635</v>
       </c>
       <c r="W3" t="n">
-        <v>938.1198929682045</v>
+        <v>702.9677847364635</v>
       </c>
       <c r="X3" t="n">
-        <v>938.1198929682045</v>
+        <v>702.9677847364635</v>
       </c>
       <c r="Y3" t="n">
-        <v>816.5594247923373</v>
+        <v>702.9677847364635</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="C4" t="n">
-        <v>790.2956096381108</v>
+        <v>790.2956096381125</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1789702257751</v>
+        <v>640.1789702257768</v>
       </c>
       <c r="E4" t="n">
-        <v>492.2658766433819</v>
+        <v>492.2658766433836</v>
       </c>
       <c r="F4" t="n">
-        <v>345.3759291454716</v>
+        <v>345.3759291454733</v>
       </c>
       <c r="G4" t="n">
         <v>297.950953577229</v>
@@ -4485,55 +4485,55 @@
         <v>143.6963104769941</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132035</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469301</v>
+        <v>60.34504070228465</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>245.178035603103</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669861</v>
+        <v>450.4476363223408</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030903</v>
+        <v>656.2710011584451</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916892</v>
+        <v>830.3658965470439</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660177</v>
+        <v>955.8134731456595</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="V4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="W4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="X4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.2317925660177</v>
+        <v>959.2317925660194</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>867.9393068550191</v>
+        <v>281.4938292502749</v>
       </c>
       <c r="C5" t="n">
-        <v>574.7165680526477</v>
+        <v>43.03965385861444</v>
       </c>
       <c r="D5" t="n">
-        <v>574.7165680526477</v>
+        <v>43.03965385861444</v>
       </c>
       <c r="E5" t="n">
-        <v>574.7165680526477</v>
+        <v>43.03965385861444</v>
       </c>
       <c r="F5" t="n">
-        <v>281.4938292502764</v>
+        <v>36.09415310941097</v>
       </c>
       <c r="G5" t="n">
-        <v>268.6229170540131</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="H5" t="n">
-        <v>136.1130242870239</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382952004</v>
+        <v>59.13673382951953</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444963</v>
+        <v>163.700268344495</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084645</v>
+        <v>330.3223409084627</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162876</v>
+        <v>547.3909387162847</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537063</v>
+        <v>772.5857417537025</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416935</v>
+        <v>971.8955472416885</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171415</v>
+        <v>1107.500854171409</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657384</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657384</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657384</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657384</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657384</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657391</v>
+        <v>867.9393068550143</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657391</v>
+        <v>574.7165680526446</v>
       </c>
       <c r="X5" t="n">
-        <v>1161.162045657391</v>
+        <v>574.7165680526446</v>
       </c>
       <c r="Y5" t="n">
-        <v>1161.162045657391</v>
+        <v>574.7165680526446</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505.8481348609815</v>
+        <v>72.69570494132563</v>
       </c>
       <c r="C6" t="n">
-        <v>331.3951055798545</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="D6" t="n">
-        <v>182.4606959186033</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="J6" t="n">
-        <v>25.7952243050895</v>
+        <v>25.79522430508906</v>
       </c>
       <c r="K6" t="n">
-        <v>235.7315125838865</v>
+        <v>235.7315125838839</v>
       </c>
       <c r="L6" t="n">
-        <v>393.0537298894985</v>
+        <v>393.0537298894952</v>
       </c>
       <c r="M6" t="n">
-        <v>595.9982052478114</v>
+        <v>595.9982052478073</v>
       </c>
       <c r="N6" t="n">
-        <v>818.7226619044726</v>
+        <v>818.7226619044677</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.252231792104</v>
+        <v>1000.252231792098</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.61264931323</v>
+        <v>1126.612649313224</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657384</v>
       </c>
       <c r="R6" t="n">
-        <v>1161.162045657391</v>
+        <v>1145.912305891825</v>
       </c>
       <c r="S6" t="n">
-        <v>1161.162045657391</v>
+        <v>1145.912305891825</v>
       </c>
       <c r="T6" t="n">
-        <v>1089.675270851536</v>
+        <v>1145.912305891825</v>
       </c>
       <c r="U6" t="n">
-        <v>1089.675270851536</v>
+        <v>1145.912305891825</v>
       </c>
       <c r="V6" t="n">
-        <v>1089.675270851536</v>
+        <v>910.760197660082</v>
       </c>
       <c r="W6" t="n">
-        <v>1089.675270851536</v>
+        <v>656.5228409318804</v>
       </c>
       <c r="X6" t="n">
-        <v>881.8237706460034</v>
+        <v>448.6713407263476</v>
       </c>
       <c r="Y6" t="n">
-        <v>674.0634718810495</v>
+        <v>240.9110419613937</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>649.3573374179414</v>
+        <v>637.0791043336937</v>
       </c>
       <c r="C7" t="n">
-        <v>480.4211544900345</v>
+        <v>468.1429214057869</v>
       </c>
       <c r="D7" t="n">
-        <v>330.3045150776987</v>
+        <v>318.0262819934512</v>
       </c>
       <c r="E7" t="n">
-        <v>182.3914214953056</v>
+        <v>170.113188411058</v>
       </c>
       <c r="F7" t="n">
-        <v>35.50147399739527</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="G7" t="n">
-        <v>35.50147399739527</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="H7" t="n">
-        <v>35.50147399739527</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="I7" t="n">
-        <v>35.50147399739527</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314768</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279151</v>
+        <v>133.2846894279146</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993047</v>
+        <v>329.6518852993038</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837277</v>
+        <v>547.0826837276986</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730513</v>
+        <v>764.7780801730496</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967879</v>
+        <v>949.8387182967858</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.66938219591</v>
+        <v>1084.669382195907</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="X7" t="n">
-        <v>1051.798381391711</v>
+        <v>1039.520148307464</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.0058022481811</v>
+        <v>818.7275691639335</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854573</v>
+        <v>603.6036480119274</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450455</v>
+        <v>234.6411310715156</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>234.6411310715156</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>234.6411310715156</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>227.6956303223122</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>990.2034880760491</v>
       </c>
     </row>
     <row r="9">
@@ -4874,37 +4874,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>551.2876347907473</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>845.991191822219</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>910.9948295422081</v>
+        <v>910.9948295422085</v>
       </c>
       <c r="C10" t="n">
-        <v>742.0586466143012</v>
+        <v>742.0586466143017</v>
       </c>
       <c r="D10" t="n">
-        <v>591.9420072019655</v>
+        <v>591.9420072019659</v>
       </c>
       <c r="E10" t="n">
-        <v>444.0289136195723</v>
+        <v>444.0289136195728</v>
       </c>
       <c r="F10" t="n">
-        <v>297.138966121662</v>
+        <v>297.1389661216624</v>
       </c>
       <c r="G10" t="n">
-        <v>129.1525014299405</v>
+        <v>129.152501429941</v>
       </c>
       <c r="H10" t="n">
-        <v>129.1525014299405</v>
+        <v>129.152501429941</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311364</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032295</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702924</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613761</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5275,16 +5275,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1495.722333193953</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.305163156993</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5609,10 +5609,10 @@
         <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5992,16 +5992,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6074,13 +6074,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6493,7 +6493,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6682,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,13 +7405,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7438,7 +7438,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>365.9405071576781</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>219.0505596597677</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>6.233205181928426</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923419</v>
+        <v>66.78462588923516</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>46.25131710763685</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>77.96696197637743</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839809</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.7423662450677</v>
+        <v>54.74236624506807</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>128.6722568460169</v>
+        <v>128.6722568460152</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.4330134067488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>205.8445769401539</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>61.40075786968279</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>41.54258064659109</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>632597.514076818</v>
+        <v>632597.5140768181</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>634066.5299596982</v>
+        <v>634066.5299596981</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>617558.8290677508</v>
+        <v>617558.829067751</v>
       </c>
     </row>
     <row r="7">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900061</v>
@@ -26352,10 +26352,10 @@
         <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>652246.4444800892</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342211116</v>
+        <v>55881.32342210893</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276226</v>
+        <v>363279.8866276245</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353572</v>
+        <v>62744.31078353588</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440515</v>
+        <v>12992.59634440458</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666228</v>
+        <v>88656.33991666266</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.229288266773751e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431035</v>
+        <v>246054.660343104</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26441,7 +26441,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26456,7 +26456,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437328</v>
+        <v>61145.7022343733</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302712</v>
+        <v>65162.40123302699</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-153413.1843562049</v>
+        <v>-153413.1843562054</v>
       </c>
       <c r="C6" t="n">
-        <v>453943.3848660417</v>
+        <v>453943.3848660434</v>
       </c>
       <c r="D6" t="n">
-        <v>220873.0168139972</v>
+        <v>220873.0168139953</v>
       </c>
       <c r="E6" t="n">
-        <v>185194.3848403654</v>
+        <v>185507.0261692872</v>
       </c>
       <c r="F6" t="n">
-        <v>692679.8264649118</v>
+        <v>692992.4677938333</v>
       </c>
       <c r="G6" t="n">
-        <v>692679.8264649113</v>
+        <v>692992.467793833</v>
       </c>
       <c r="H6" t="n">
-        <v>692679.8264649117</v>
+        <v>692992.467793833</v>
       </c>
       <c r="I6" t="n">
-        <v>692679.8264649116</v>
+        <v>692992.4677938331</v>
       </c>
       <c r="J6" t="n">
-        <v>629935.5156813759</v>
+        <v>630248.1570102972</v>
       </c>
       <c r="K6" t="n">
-        <v>679687.2301205064</v>
+        <v>679999.8714494285</v>
       </c>
       <c r="L6" t="n">
-        <v>604023.4865482494</v>
+        <v>604336.1278771703</v>
       </c>
       <c r="M6" t="n">
-        <v>560072.5327359849</v>
+        <v>560385.1740649062</v>
       </c>
       <c r="N6" t="n">
-        <v>692679.8264649117</v>
+        <v>692992.467793833</v>
       </c>
       <c r="O6" t="n">
-        <v>692679.8264649118</v>
+        <v>692992.4677938331</v>
       </c>
       <c r="P6" t="n">
-        <v>692679.8264649118</v>
+        <v>692992.467793833</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575591</v>
+        <v>636.9329421575576</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415044</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143476</v>
+        <v>290.290511414346</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.536610333467188e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949446</v>
+        <v>43.45684181949275</v>
       </c>
       <c r="D3" t="n">
-        <v>297.13194995998</v>
+        <v>297.1319499599817</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415044</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284322</v>
+        <v>50.48256327284113</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856912</v>
+        <v>350.2943206856928</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415041</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284345</v>
+        <v>50.48256327284113</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856912</v>
+        <v>350.2943206856928</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415044</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284322</v>
+        <v>50.48256327284113</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856912</v>
+        <v>350.2943206856928</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.9258935219761</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>125.4649436295031</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>350.3060921468147</v>
+        <v>167.0680976002066</v>
       </c>
       <c r="G2" t="n">
-        <v>173.1089558044324</v>
+        <v>207.8789580768863</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>103.4534949263014</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>85.33783228319585</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>119.9700507420103</v>
+        <v>119.9700507420087</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.44333024913294</v>
+        <v>92.44333024913459</v>
       </c>
       <c r="C5" t="n">
-        <v>74.98238035665992</v>
+        <v>129.2032581332637</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>116.5855343273638</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>182.0669349342525</v>
+        <v>313.2517287735718</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.7608855401376</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>150.6718910157314</v>
       </c>
       <c r="T5" t="n">
         <v>211.8871100493787</v>
@@ -27675,10 +27675,10 @@
         <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>37.46174705578892</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>58.95045730306703</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,13 +27697,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>123.7307596004196</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337434</v>
+        <v>99.00406368337437</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370905</v>
+        <v>42.22754232370915</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790342</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.235897424241</v>
+        <v>146.2358974242411</v>
       </c>
       <c r="T6" t="n">
-        <v>123.8707332045466</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
         <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197631</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.15545075340516</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441976</v>
+        <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153978</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>183.3518287159642</v>
+        <v>171.1963779625615</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.0941736780764</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>302.5732601286585</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>27.66993749058251</v>
+        <v>27.66993749058206</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651557</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>303.486976877902</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074823</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>425.7102483359669</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810515</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>43.95082441182839</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847382</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512821</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>332.0050874900652</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947076</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080801</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784624</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308315</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08398246702897147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207013</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784129</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490376</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676926</v>
       </c>
       <c r="N4" t="n">
         <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720919</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>89.61489115104779</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937816</v>
       </c>
       <c r="S4" t="n">
         <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>4.572684707522793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390808</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834406</v>
+        <v>2.560534440834401</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219537</v>
+        <v>26.22307334219531</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026855</v>
+        <v>98.71500403026832</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977694</v>
+        <v>217.3221599977689</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782899</v>
+        <v>325.7095828782891</v>
       </c>
       <c r="L5" t="n">
-        <v>404.071538771976</v>
+        <v>404.071538771975</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341648</v>
+        <v>449.6074431341638</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141856</v>
+        <v>456.8825616141845</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681384</v>
+        <v>431.4212472681374</v>
       </c>
       <c r="P5" t="n">
-        <v>368.208053260039</v>
+        <v>368.2080532600381</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976567</v>
+        <v>276.508913597656</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690644</v>
+        <v>160.8431715690641</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051409</v>
+        <v>58.34817857051396</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475262</v>
+        <v>11.20873951475259</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667525</v>
+        <v>0.204842755266752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772863</v>
+        <v>1.37000670577286</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312213</v>
+        <v>13.2313805531221</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770603</v>
+        <v>47.16909052770593</v>
       </c>
       <c r="J6" t="n">
-        <v>129.43558968883</v>
+        <v>129.4355896888297</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756118</v>
+        <v>221.2260389756113</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916035</v>
+        <v>297.4657103916028</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758697</v>
+        <v>347.1284534758689</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264254</v>
+        <v>356.3159107264246</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511425</v>
+        <v>325.9594463511418</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892057</v>
+        <v>261.6111927892051</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316378</v>
+        <v>174.8801542316373</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473971</v>
+        <v>85.06059178473951</v>
       </c>
       <c r="S6" t="n">
-        <v>25.4472736795968</v>
+        <v>25.44727367959674</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479213</v>
+        <v>5.5220884324792</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663575</v>
+        <v>0.09013202011663554</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611992</v>
+        <v>1.148567600611989</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180481</v>
+        <v>10.21181012180478</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749518</v>
+        <v>34.5405602074951</v>
       </c>
       <c r="J7" t="n">
-        <v>81.2037293632678</v>
+        <v>81.20372936326761</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438296</v>
+        <v>133.4426721438292</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400774</v>
+        <v>170.760677640077</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577506</v>
+        <v>180.0431921577502</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645606</v>
+        <v>175.7621674645602</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846841</v>
+        <v>162.3448095846837</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321994</v>
+        <v>138.914030532199</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579141</v>
+        <v>96.1768742657912</v>
       </c>
       <c r="R7" t="n">
-        <v>51.6437759329719</v>
+        <v>51.64377593297178</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157443</v>
+        <v>20.01640082157438</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705781</v>
+        <v>4.90751611170577</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156326</v>
+        <v>0.0626491418515631</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>652.0478969157699</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>502.2268148619681</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705378</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292146</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012657</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802094</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>196.297184739376</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>171.887904360565</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874002</v>
+        <v>111.8528537874004</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130796</v>
+        <v>35.33749497130808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.2907269326837</v>
+        <v>68.29072693268378</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714078</v>
+        <v>138.6157555714079</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622268</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>161.123548150263</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528269</v>
+        <v>109.787502552827</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.75123316395828</v>
+        <v>89.7512331639593</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531411</v>
+        <v>41.57616651612551</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295331</v>
+        <v>207.3430310295332</v>
       </c>
       <c r="N4" t="n">
         <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>69.67512249932176</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353401</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108312</v>
+        <v>36.27625547108261</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333093</v>
+        <v>105.6197318333085</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019887</v>
+        <v>168.3051238019877</v>
       </c>
       <c r="M5" t="n">
-        <v>219.261209906892</v>
+        <v>219.261209906891</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175947</v>
+        <v>227.4694980175936</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464517</v>
+        <v>201.3230358464507</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047694</v>
+        <v>136.9750575047686</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320723</v>
+        <v>54.20322372320655</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163327</v>
+        <v>2.597963022163015</v>
       </c>
       <c r="K6" t="n">
-        <v>212.0568568472697</v>
+        <v>212.0568568472675</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117293</v>
+        <v>158.9113306117286</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538513</v>
+        <v>204.9944195538505</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430921</v>
+        <v>224.9741986430913</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066981</v>
+        <v>183.3632019066973</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748755</v>
+        <v>127.6367853748749</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561624</v>
+        <v>34.89838014561582</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179467</v>
+        <v>111.1731803179464</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003935</v>
+        <v>198.3507029003931</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195912</v>
+        <v>219.6270691195908</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437892</v>
+        <v>219.8943398437888</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987238</v>
+        <v>186.9299374987234</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970929</v>
+        <v>136.1925897970925</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409703</v>
+        <v>10.01483101409681</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0205096502336</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937516</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>359.6305704175236</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
